--- a/data/hotels_by_city/Dallas/Dallas_shard_707.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_707.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,261 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r362658449-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>98657</t>
+  </si>
+  <si>
+    <t>362658449</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Don't expect much...</t>
+  </si>
+  <si>
+    <t>First and last time I use Studio 6...  In Dallas on business, and they were closest to where I needed to be. That was the plus. Ample hot water and good pressure the other. The actual rooms don't really match the advertising. It had everything, but it was tired and worn. Fridge door dented, carafe/coffee pot were mismatched. 2 really flat pillows. Clean but stained sheets. Smallest "queen" bed I've ever seen. Not thrilled with the single door adjoining room concept either. Not terrible, but I'll look harder next time I'm in the area...  Actual photo versus Studio 6 professional shot...</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r337093294-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>337093294</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>We had a Dr. apt in the area so we found this and the online photos looked ok .We wanted something clean ,simple, comfortable and with good WIFI. This was all guaranteed bye the front desk  that we talked to.  We arrived and   the front desk gave us the key. We walked in and turned on the lights and BAMMMN roaches went everywhere. Looks were deceiving . The room looked clean . I told my husband I was not saying in the room . It was and online purchase and we were told it was  non refundable  after purchase. My husband called the front desk  and the nice man placed us in a room that didn't not have any apparent  roaches.( Believe me I looked everywhere) .Next thing was the WIFI , It is sporadic . Browser loads then it goes away. I needed the WIFI to keep a watch on my adult Cerebral Palsy daughter that was with a sitter with  our cameras . Very Disappointing . The poor guy at the front desk does what he can with probably no help from the owner/manager. Hey Studio 6 Fix the WIFI and roaches and new bedspreads and you have a great Hotel...  You can put a pink dress on a pig it's still a  pig  .MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We had a Dr. apt in the area so we found this and the online photos looked ok .We wanted something clean ,simple, comfortable and with good WIFI. This was all guaranteed bye the front desk  that we talked to.  We arrived and   the front desk gave us the key. We walked in and turned on the lights and BAMMMN roaches went everywhere. Looks were deceiving . The room looked clean . I told my husband I was not saying in the room . It was and online purchase and we were told it was  non refundable  after purchase. My husband called the front desk  and the nice man placed us in a room that didn't not have any apparent  roaches.( Believe me I looked everywhere) .Next thing was the WIFI , It is sporadic . Browser loads then it goes away. I needed the WIFI to keep a watch on my adult Cerebral Palsy daughter that was with a sitter with  our cameras . Very Disappointing . The poor guy at the front desk does what he can with probably no help from the owner/manager. Hey Studio 6 Fix the WIFI and roaches and new bedspreads and you have a great Hotel...  You can put a pink dress on a pig it's still a  pig  .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r285531325-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>285531325</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>CLEAN AND GOOD LOCATION</t>
+  </si>
+  <si>
+    <t>This motel is better than most. I did not see obvious drug dealing or prostitution, rare in Dallas area. The rooms had tile/wood type flooring which was a blessing, as they were easy to keep clean.No carpeting means no musty smells and the floors can be disinfected, finally I was able to walk around barefoot.The beds and room furniture were in acceptable condition and much better than most extended stay paces.There is a problem with no smoking rooms as people cheat. I was next to a man and his wife who were chain smokers and the smell and smoke constantly filled my room. I became ill on several occasions, yet the front desk said the couple denied smoking. All they would have to do is walk in their room, but I was told I would have to move. I did not think this was right as I was following the rules and a move was too overwhelming for me at the time. Someone needs to be held accountable. No smoking rooms should mean no smoking in rooms.Overall, I would say this place is fairly safe, clean and an easy access location.MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel is better than most. I did not see obvious drug dealing or prostitution, rare in Dallas area. The rooms had tile/wood type flooring which was a blessing, as they were easy to keep clean.No carpeting means no musty smells and the floors can be disinfected, finally I was able to walk around barefoot.The beds and room furniture were in acceptable condition and much better than most extended stay paces.There is a problem with no smoking rooms as people cheat. I was next to a man and his wife who were chain smokers and the smell and smoke constantly filled my room. I became ill on several occasions, yet the front desk said the couple denied smoking. All they would have to do is walk in their room, but I was told I would have to move. I did not think this was right as I was following the rules and a move was too overwhelming for me at the time. Someone needs to be held accountable. No smoking rooms should mean no smoking in rooms.Overall, I would say this place is fairly safe, clean and an easy access location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r223675690-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>223675690</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Paper thin walls!</t>
+  </si>
+  <si>
+    <t>I stayed here for a week (Aug. 15-22nd) while I was in Dallas for work. I am a travel nurse and needed someplace to stay while in Dallas working. I had six days to work with only one day off in between my six 12 hour work days so I was not really looking for much in a place other than a decently clean place to lay my head and a place that had a fridge to store my breakfast and lunch items. The rooms are actually fairly nice, however not quite like the pictures show online when you pull up their site...but few rarely are!  The bed was decent, the room fairly clean. I say fairly because although I did not find any hair or bugs, the coffee pot in the room had coffee left over from the previous persons stay...really! The fridge also had something spilled down the side of it and was not cleaned up. All minor things really....but the biggest problem that I had with this place was the lack of insulation in the rooms! You should NEVER be able to hear the normal conversation of the people in the next room! I did not have any "neighbors" the first two nights that I stayed here, but unfortunately I did the entire rest of my stay. The couple and their toddler (est. about 2-3 years old) arrived at 11pm and were very, very loud. Inconsiderate in...I stayed here for a week (Aug. 15-22nd) while I was in Dallas for work. I am a travel nurse and needed someplace to stay while in Dallas working. I had six days to work with only one day off in between my six 12 hour work days so I was not really looking for much in a place other than a decently clean place to lay my head and a place that had a fridge to store my breakfast and lunch items. The rooms are actually fairly nice, however not quite like the pictures show online when you pull up their site...but few rarely are!  The bed was decent, the room fairly clean. I say fairly because although I did not find any hair or bugs, the coffee pot in the room had coffee left over from the previous persons stay...really! The fridge also had something spilled down the side of it and was not cleaned up. All minor things really....but the biggest problem that I had with this place was the lack of insulation in the rooms! You should NEVER be able to hear the normal conversation of the people in the next room! I did not have any "neighbors" the first two nights that I stayed here, but unfortunately I did the entire rest of my stay. The couple and their toddler (est. about 2-3 years old) arrived at 11pm and were very, very loud. Inconsiderate in actually slamming the door shut and yelling at each other like they were in a fight. The poor kid was obviously very sleepy because she would be very quiet until the ignorant woman came in and started yelling at her "man"...then she would start crying. This cycle occurred every 10-15 minutes for the first hour they arrived. Needless to say my sleep was interrupted. The next night they continued until about two in the morning. I considered calling the police, but for what...the walls being too thin? One night I heard two very loud thumps followed by the little girl crying, I assume it was the child falling off the chair because she was left unsupervised. The next night the ignorant woman was listening in to my phone call obviously because my husband was telling me how much he missed me and loved me and the next thing you know she starts yelling vulgarities and moaning like she is having sex, I know Studio 6 can't do anything about the respectfullness or maturity of their guests...but come on, at least put enough insulation and soundproofing between the walls so that you guests don't have to hear the normal voice conversations of their "neighbors" and can assume some privacy is intact.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a week (Aug. 15-22nd) while I was in Dallas for work. I am a travel nurse and needed someplace to stay while in Dallas working. I had six days to work with only one day off in between my six 12 hour work days so I was not really looking for much in a place other than a decently clean place to lay my head and a place that had a fridge to store my breakfast and lunch items. The rooms are actually fairly nice, however not quite like the pictures show online when you pull up their site...but few rarely are!  The bed was decent, the room fairly clean. I say fairly because although I did not find any hair or bugs, the coffee pot in the room had coffee left over from the previous persons stay...really! The fridge also had something spilled down the side of it and was not cleaned up. All minor things really....but the biggest problem that I had with this place was the lack of insulation in the rooms! You should NEVER be able to hear the normal conversation of the people in the next room! I did not have any "neighbors" the first two nights that I stayed here, but unfortunately I did the entire rest of my stay. The couple and their toddler (est. about 2-3 years old) arrived at 11pm and were very, very loud. Inconsiderate in...I stayed here for a week (Aug. 15-22nd) while I was in Dallas for work. I am a travel nurse and needed someplace to stay while in Dallas working. I had six days to work with only one day off in between my six 12 hour work days so I was not really looking for much in a place other than a decently clean place to lay my head and a place that had a fridge to store my breakfast and lunch items. The rooms are actually fairly nice, however not quite like the pictures show online when you pull up their site...but few rarely are!  The bed was decent, the room fairly clean. I say fairly because although I did not find any hair or bugs, the coffee pot in the room had coffee left over from the previous persons stay...really! The fridge also had something spilled down the side of it and was not cleaned up. All minor things really....but the biggest problem that I had with this place was the lack of insulation in the rooms! You should NEVER be able to hear the normal conversation of the people in the next room! I did not have any "neighbors" the first two nights that I stayed here, but unfortunately I did the entire rest of my stay. The couple and their toddler (est. about 2-3 years old) arrived at 11pm and were very, very loud. Inconsiderate in actually slamming the door shut and yelling at each other like they were in a fight. The poor kid was obviously very sleepy because she would be very quiet until the ignorant woman came in and started yelling at her "man"...then she would start crying. This cycle occurred every 10-15 minutes for the first hour they arrived. Needless to say my sleep was interrupted. The next night they continued until about two in the morning. I considered calling the police, but for what...the walls being too thin? One night I heard two very loud thumps followed by the little girl crying, I assume it was the child falling off the chair because she was left unsupervised. The next night the ignorant woman was listening in to my phone call obviously because my husband was telling me how much he missed me and loved me and the next thing you know she starts yelling vulgarities and moaning like she is having sex, I know Studio 6 can't do anything about the respectfullness or maturity of their guests...but come on, at least put enough insulation and soundproofing between the walls so that you guests don't have to hear the normal voice conversations of their "neighbors" and can assume some privacy is intact.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r163163586-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>163163586</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>Bug infested!!!</t>
+  </si>
+  <si>
+    <t>This was the worst experience ever! The staff is emotionless and lack customer service skills. I have had to fight bugs since I checked in! When I told the staff the response I got was " ok what do you want to do?" I work for AT&amp;T and I plan to tell everyone I come in contact about this horrible experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r148725811-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>148725811</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>excellent and reasonable</t>
+  </si>
+  <si>
+    <t>i stayed there for a week during x-mas holidays .perfect location, clean and decent rooms...very friendly and helpful staff with excellent customer service... it was my 1st time staying in any of the studio chains, and getting such a room 40 bucks a day in that location was a great deal for me...i would definitely be wanting to stay there again.....</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r129769103-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>129769103</t>
+  </si>
+  <si>
+    <t>05/11/2012</t>
+  </si>
+  <si>
+    <t>decent hotel in great price</t>
+  </si>
+  <si>
+    <t>excellent room with fresh look wood floor , very contempoary look.best location with best rate and friendly customer service.they do offer temparpedic bed in suite room which is well worthet.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r126716803-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>126716803</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Can't wait to get there</t>
+  </si>
+  <si>
+    <t>mY sisters wre down there and loved the place first stime at a studio6 bern to motel 6 before they loved the place staff and just alround goodness we are going to be booking more rooms for the family reunion so more of us can sty there</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r122662982-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>122662982</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>*** HORRIBLE ***</t>
+  </si>
+  <si>
+    <t>This is a HORRIBLE place to stay... First of all, they would not honor the internet rate(which was reduced from the standard weekly rate) and overcharged me...Escalated to Manager(Raj Patel) and he acted like he didn't understand what I was saying as a means to rectify the issue.... Even the corporate franchise owner(Accor North America) refuses to be manageable when dealing through the Better Business Bureau..Even if I'd gotten the discounted rate, this place was horrible.. My room didn't lock (Rm #246), so I had to pack up &amp; move my things to my truck while gone... The heater/AC unit blew out a foul odor on either setting...  There were shady characters hanging around the back side maybe selling drugs &amp;  with overly dressed up women walking the parking lot.. Office staff didn't speak english &amp; refused to address these issues described above... I wonder if the Sheriffs Dept knows of the criminal enterprise being supported by the motel Management &amp; its Corporate entity... ??MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>This is a HORRIBLE place to stay... First of all, they would not honor the internet rate(which was reduced from the standard weekly rate) and overcharged me...Escalated to Manager(Raj Patel) and he acted like he didn't understand what I was saying as a means to rectify the issue.... Even the corporate franchise owner(Accor North America) refuses to be manageable when dealing through the Better Business Bureau..Even if I'd gotten the discounted rate, this place was horrible.. My room didn't lock (Rm #246), so I had to pack up &amp; move my things to my truck while gone... The heater/AC unit blew out a foul odor on either setting...  There were shady characters hanging around the back side maybe selling drugs &amp;  with overly dressed up women walking the parking lot.. Office staff didn't speak english &amp; refused to address these issues described above... I wonder if the Sheriffs Dept knows of the criminal enterprise being supported by the motel Management &amp; its Corporate entity... ??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r89838292-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>89838292</t>
+  </si>
+  <si>
+    <t>12/14/2010</t>
+  </si>
+  <si>
+    <t>Yuk, Ewww,Dangit,ugh,frack!</t>
+  </si>
+  <si>
+    <t>NOT for anyone with chemical sensitivities!! Needed a hotel to relax in while I was down for medical procedure. Mngmnt aware that I couldn't be around chemicals/perfumes-specifically got a room that hadn't been occupied in a while-Handicap accessible, which was great since I am. Walk/roll in shower was MOLDY/SLIMY!! Room had smell of air freshener trapped in drapes/bedding, but had to live with it since it was so late. No "do not disturb" sign provided-returned from medical procedure to room drowned in bleach and air freshener. Hubby had to pack car while I wretched in parking lot. We had reserved room for 1 more night-mngmt ONLY returned $20-less than 1/2 of nights stay. All our clothes/pillows we had left in the room were coated in chemical smells. Had to put everything in trash bags for 6 hr car ride home JUST so I could breathe! Carpets were stiff/crunchy. Even tho it was H.Access. room there was no handicap prking spot saved outside the door &amp; no ramp. All rooms enter from outside bldg. Unless you know Dallas, this place is an immense PAIN to get to bc of the street layouts in the area. No food places immediately nearby. The room was big enuf but culdn't tell u if kitchen stuff worked or not. From the ickiness of the room you wuldnt catch me cooking food there anyway. YUK.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>NOT for anyone with chemical sensitivities!! Needed a hotel to relax in while I was down for medical procedure. Mngmnt aware that I couldn't be around chemicals/perfumes-specifically got a room that hadn't been occupied in a while-Handicap accessible, which was great since I am. Walk/roll in shower was MOLDY/SLIMY!! Room had smell of air freshener trapped in drapes/bedding, but had to live with it since it was so late. No "do not disturb" sign provided-returned from medical procedure to room drowned in bleach and air freshener. Hubby had to pack car while I wretched in parking lot. We had reserved room for 1 more night-mngmt ONLY returned $20-less than 1/2 of nights stay. All our clothes/pillows we had left in the room were coated in chemical smells. Had to put everything in trash bags for 6 hr car ride home JUST so I could breathe! Carpets were stiff/crunchy. Even tho it was H.Access. room there was no handicap prking spot saved outside the door &amp; no ramp. All rooms enter from outside bldg. Unless you know Dallas, this place is an immense PAIN to get to bc of the street layouts in the area. No food places immediately nearby. The room was big enuf but culdn't tell u if kitchen stuff worked or not. From the ickiness of the room you wuldnt catch me cooking food there anyway. YUK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r69139502-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>69139502</t>
+  </si>
+  <si>
+    <t>06/29/2010</t>
+  </si>
+  <si>
+    <t>Not another Motel 6</t>
+  </si>
+  <si>
+    <t>In the last few months I've logged roughly 14,000 mi. In an effort to save money I tried staying at Motel 6's along the way.As far as Motel 6 is concerned, they suck... However, this is a diamond in the VERY rough. It was very clean, quiet (something I surely can't say for any others I've stayed at).This morning I awoke to find my TV remote wasn't working. A call to the front desk had the manager in my room in less than 2 min with a new one. I know, just a TV remote, but I firmly believe if you can't be trusted with the small stuff, you damn well can't be trusted with the big stuff. I WILL stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>In the last few months I've logged roughly 14,000 mi. In an effort to save money I tried staying at Motel 6's along the way.As far as Motel 6 is concerned, they suck... However, this is a diamond in the VERY rough. It was very clean, quiet (something I surely can't say for any others I've stayed at).This morning I awoke to find my TV remote wasn't working. A call to the front desk had the manager in my room in less than 2 min with a new one. I know, just a TV remote, but I firmly believe if you can't be trusted with the small stuff, you damn well can't be trusted with the big stuff. I WILL stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r28427556-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>28427556</t>
+  </si>
+  <si>
+    <t>04/20/2009</t>
+  </si>
+  <si>
+    <t>excellent hotel in best price</t>
+  </si>
+  <si>
+    <t>we stayed st studio6 in dec 2008 for 2 weeks &amp; the stay was amazing. The room was very clean &amp; spacious compared some other extended stay hotels in that area. The price was excellent. we paid around $249+tax/week. We got regular room service. the staff was so helpful &amp; polite. they spoke nice english &amp; good communication skilled staff.there was a night security &amp; area was looking safest place in dallas.       i liked most about this place was fully furnished kitchen with all utensils, silverware, crockeries, microwave, full sized refrigerator, cable tv with almost 30 to 35 channels.     I would suggest this place to stay to all my friend &amp; relatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>we stayed st studio6 in dec 2008 for 2 weeks &amp; the stay was amazing. The room was very clean &amp; spacious compared some other extended stay hotels in that area. The price was excellent. we paid around $249+tax/week. We got regular room service. the staff was so helpful &amp; polite. they spoke nice english &amp; good communication skilled staff.there was a night security &amp; area was looking safest place in dallas.       i liked most about this place was fully furnished kitchen with all utensils, silverware, crockeries, microwave, full sized refrigerator, cable tv with almost 30 to 35 channels.     I would suggest this place to stay to all my friend &amp; relatives.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +900,770 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_707.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_707.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Russell77017</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Food_Hotel_Critic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r337093294-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>We had a Dr. apt in the area so we found this and the online photos looked ok .We wanted something clean ,simple, comfortable and with good WIFI. This was all guaranteed bye the front desk  that we talked to.  We arrived and   the front desk gave us the key. We walked in and turned on the lights and BAMMMN roaches went everywhere. Looks were deceiving . The room looked clean . I told my husband I was not saying in the room . It was and online purchase and we were told it was  non refundable  after purchase. My husband called the front desk  and the nice man placed us in a room that didn't not have any apparent  roaches.( Believe me I looked everywhere) .Next thing was the WIFI , It is sporadic . Browser loads then it goes away. I needed the WIFI to keep a watch on my adult Cerebral Palsy daughter that was with a sitter with  our cameras . Very Disappointing . The poor guy at the front desk does what he can with probably no help from the owner/manager. Hey Studio 6 Fix the WIFI and roaches and new bedspreads and you have a great Hotel...  You can put a pink dress on a pig it's still a  pig  .More</t>
   </si>
   <si>
+    <t>elaine k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r285531325-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>This motel is better than most. I did not see obvious drug dealing or prostitution, rare in Dallas area. The rooms had tile/wood type flooring which was a blessing, as they were easy to keep clean.No carpeting means no musty smells and the floors can be disinfected, finally I was able to walk around barefoot.The beds and room furniture were in acceptable condition and much better than most extended stay paces.There is a problem with no smoking rooms as people cheat. I was next to a man and his wife who were chain smokers and the smell and smoke constantly filled my room. I became ill on several occasions, yet the front desk said the couple denied smoking. All they would have to do is walk in their room, but I was told I would have to move. I did not think this was right as I was following the rules and a move was too overwhelming for me at the time. Someone needs to be held accountable. No smoking rooms should mean no smoking in rooms.Overall, I would say this place is fairly safe, clean and an easy access location.More</t>
   </si>
   <si>
+    <t>SuzanneM1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r223675690-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>I stayed here for a week (Aug. 15-22nd) while I was in Dallas for work. I am a travel nurse and needed someplace to stay while in Dallas working. I had six days to work with only one day off in between my six 12 hour work days so I was not really looking for much in a place other than a decently clean place to lay my head and a place that had a fridge to store my breakfast and lunch items. The rooms are actually fairly nice, however not quite like the pictures show online when you pull up their site...but few rarely are!  The bed was decent, the room fairly clean. I say fairly because although I did not find any hair or bugs, the coffee pot in the room had coffee left over from the previous persons stay...really! The fridge also had something spilled down the side of it and was not cleaned up. All minor things really....but the biggest problem that I had with this place was the lack of insulation in the rooms! You should NEVER be able to hear the normal conversation of the people in the next room! I did not have any "neighbors" the first two nights that I stayed here, but unfortunately I did the entire rest of my stay. The couple and their toddler (est. about 2-3 years old) arrived at 11pm and were very, very loud. Inconsiderate in...I stayed here for a week (Aug. 15-22nd) while I was in Dallas for work. I am a travel nurse and needed someplace to stay while in Dallas working. I had six days to work with only one day off in between my six 12 hour work days so I was not really looking for much in a place other than a decently clean place to lay my head and a place that had a fridge to store my breakfast and lunch items. The rooms are actually fairly nice, however not quite like the pictures show online when you pull up their site...but few rarely are!  The bed was decent, the room fairly clean. I say fairly because although I did not find any hair or bugs, the coffee pot in the room had coffee left over from the previous persons stay...really! The fridge also had something spilled down the side of it and was not cleaned up. All minor things really....but the biggest problem that I had with this place was the lack of insulation in the rooms! You should NEVER be able to hear the normal conversation of the people in the next room! I did not have any "neighbors" the first two nights that I stayed here, but unfortunately I did the entire rest of my stay. The couple and their toddler (est. about 2-3 years old) arrived at 11pm and were very, very loud. Inconsiderate in actually slamming the door shut and yelling at each other like they were in a fight. The poor kid was obviously very sleepy because she would be very quiet until the ignorant woman came in and started yelling at her "man"...then she would start crying. This cycle occurred every 10-15 minutes for the first hour they arrived. Needless to say my sleep was interrupted. The next night they continued until about two in the morning. I considered calling the police, but for what...the walls being too thin? One night I heard two very loud thumps followed by the little girl crying, I assume it was the child falling off the chair because she was left unsupervised. The next night the ignorant woman was listening in to my phone call obviously because my husband was telling me how much he missed me and loved me and the next thing you know she starts yelling vulgarities and moaning like she is having sex, I know Studio 6 can't do anything about the respectfullness or maturity of their guests...but come on, at least put enough insulation and soundproofing between the walls so that you guests don't have to hear the normal voice conversations of their "neighbors" and can assume some privacy is intact.More</t>
   </si>
   <si>
+    <t>Khillsman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r163163586-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>This was the worst experience ever! The staff is emotionless and lack customer service skills. I have had to fight bugs since I checked in! When I told the staff the response I got was " ok what do you want to do?" I work for AT&amp;T and I plan to tell everyone I come in contact about this horrible experience.</t>
   </si>
   <si>
+    <t>raul84_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r148725811-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>madhu p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r129769103-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>vickie w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r126716803-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>john d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r122662982-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>This is a HORRIBLE place to stay... First of all, they would not honor the internet rate(which was reduced from the standard weekly rate) and overcharged me...Escalated to Manager(Raj Patel) and he acted like he didn't understand what I was saying as a means to rectify the issue.... Even the corporate franchise owner(Accor North America) refuses to be manageable when dealing through the Better Business Bureau..Even if I'd gotten the discounted rate, this place was horrible.. My room didn't lock (Rm #246), so I had to pack up &amp; move my things to my truck while gone... The heater/AC unit blew out a foul odor on either setting...  There were shady characters hanging around the back side maybe selling drugs &amp;  with overly dressed up women walking the parking lot.. Office staff didn't speak english &amp; refused to address these issues described above... I wonder if the Sheriffs Dept knows of the criminal enterprise being supported by the motel Management &amp; its Corporate entity... ??More</t>
   </si>
   <si>
+    <t>GreenCanary01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r89838292-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>NOT for anyone with chemical sensitivities!! Needed a hotel to relax in while I was down for medical procedure. Mngmnt aware that I couldn't be around chemicals/perfumes-specifically got a room that hadn't been occupied in a while-Handicap accessible, which was great since I am. Walk/roll in shower was MOLDY/SLIMY!! Room had smell of air freshener trapped in drapes/bedding, but had to live with it since it was so late. No "do not disturb" sign provided-returned from medical procedure to room drowned in bleach and air freshener. Hubby had to pack car while I wretched in parking lot. We had reserved room for 1 more night-mngmt ONLY returned $20-less than 1/2 of nights stay. All our clothes/pillows we had left in the room were coated in chemical smells. Had to put everything in trash bags for 6 hr car ride home JUST so I could breathe! Carpets were stiff/crunchy. Even tho it was H.Access. room there was no handicap prking spot saved outside the door &amp; no ramp. All rooms enter from outside bldg. Unless you know Dallas, this place is an immense PAIN to get to bc of the street layouts in the area. No food places immediately nearby. The room was big enuf but culdn't tell u if kitchen stuff worked or not. From the ickiness of the room you wuldnt catch me cooking food there anyway. YUK.More</t>
   </si>
   <si>
+    <t>danjo69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r69139502-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -379,6 +412,9 @@
   </si>
   <si>
     <t>In the last few months I've logged roughly 14,000 mi. In an effort to save money I tried staying at Motel 6's along the way.As far as Motel 6 is concerned, they suck... However, this is a diamond in the VERY rough. It was very clean, quiet (something I surely can't say for any others I've stayed at).This morning I awoke to find my TV remote wasn't working. A call to the front desk had the manager in my room in less than 2 min with a new one. I know, just a TV remote, but I firmly believe if you can't be trusted with the small stuff, you damn well can't be trusted with the big stuff. I WILL stay againMore</t>
+  </si>
+  <si>
+    <t>nooneWi</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r28427556-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
@@ -904,43 +940,47 @@
       <c r="A2" t="n">
         <v>38267</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -954,50 +994,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38267</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1015,41 +1059,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38267</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
@@ -1068,50 +1116,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38267</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1129,41 +1181,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38267</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -1192,50 +1248,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38267</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1259,50 +1319,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38267</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178208</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1326,50 +1390,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38267</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178209</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1393,50 +1461,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38267</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>16762</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1460,50 +1532,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38267</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -1527,50 +1603,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38267</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1594,50 +1674,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38267</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
         <v>121</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O13" t="s">
-        <v>111</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1661,7 +1745,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_707.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_707.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Russell77017</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r495989364-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>98657</t>
+  </si>
+  <si>
+    <t>495989364</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>What a dump</t>
+  </si>
+  <si>
+    <t>This place had a terrible smell of smoke in spite of a posted no smoking room.  The mattress was horrible and the pillows worse.  We planned to stay 2 nights and checked out after one even though we'd already paid.  At this price in the city you can't expect much, and that's what you'll get here ... not much.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r399739122-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>399739122</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Robbed at Studio 6</t>
+  </si>
+  <si>
+    <t>This has to be the worst Studio 6 that I've ever stepped foot in! It was clean but the kitchenette was also cleaned out of a sink, stove top, and dishes. The coffee maker was on a table where no electrical outlet could be found. I should have read the reviews before booking this disgrace to Studio 6. It is said that haste makes waste and this place was absolutely wasted. I shan't waste any more time on this review</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r362658449-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>98657</t>
-  </si>
-  <si>
     <t>362658449</t>
   </si>
   <si>
@@ -180,9 +219,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Food_Hotel_Critic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r337093294-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -204,9 +240,6 @@
     <t>We had a Dr. apt in the area so we found this and the online photos looked ok .We wanted something clean ,simple, comfortable and with good WIFI. This was all guaranteed bye the front desk  that we talked to.  We arrived and   the front desk gave us the key. We walked in and turned on the lights and BAMMMN roaches went everywhere. Looks were deceiving . The room looked clean . I told my husband I was not saying in the room . It was and online purchase and we were told it was  non refundable  after purchase. My husband called the front desk  and the nice man placed us in a room that didn't not have any apparent  roaches.( Believe me I looked everywhere) .Next thing was the WIFI , It is sporadic . Browser loads then it goes away. I needed the WIFI to keep a watch on my adult Cerebral Palsy daughter that was with a sitter with  our cameras . Very Disappointing . The poor guy at the front desk does what he can with probably no help from the owner/manager. Hey Studio 6 Fix the WIFI and roaches and new bedspreads and you have a great Hotel...  You can put a pink dress on a pig it's still a  pig  .More</t>
   </si>
   <si>
-    <t>elaine k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r285531325-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -225,7 +258,37 @@
     <t>This motel is better than most. I did not see obvious drug dealing or prostitution, rare in Dallas area. The rooms had tile/wood type flooring which was a blessing, as they were easy to keep clean.No carpeting means no musty smells and the floors can be disinfected, finally I was able to walk around barefoot.The beds and room furniture were in acceptable condition and much better than most extended stay paces.There is a problem with no smoking rooms as people cheat. I was next to a man and his wife who were chain smokers and the smell and smoke constantly filled my room. I became ill on several occasions, yet the front desk said the couple denied smoking. All they would have to do is walk in their room, but I was told I would have to move. I did not think this was right as I was following the rules and a move was too overwhelming for me at the time. Someone needs to be held accountable. No smoking rooms should mean no smoking in rooms.Overall, I would say this place is fairly safe, clean and an easy access location.More</t>
   </si>
   <si>
-    <t>SuzanneM1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r264302089-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>264302089</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Studio 6 Dallas -Richardson North</t>
+  </si>
+  <si>
+    <t>The room rates went up this year when they motel said updated rooms. I work in the area and often have to stay overnight. The first day there is one packet of Coffee which they never replace the next day after the come in to clean. No coffee in lobby either so I have to go and buy some.. Says coffee maker in room but no Coffee! Last time the coffee maker was broken also. Budget place but I think for $80.00 a night when it's a suite it should be maintained better!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r245366401-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>245366401</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>This is the cleanest with VERY friendly staff at an excellent $price$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed here since the end of March. On site security that does an amazing job. Hardwood floors, comfortable bed, plenty of drawer and closest space coffer maker, full fridge, electric stove top and microwave. Perfect for long time visitors. Or business travelers.Very impressed with my stay here. As for the "bug" problem others have posted about, I never saw anything other than a few water bugs in the summer which is a local thing. I've only seen 1 bug in 9 months in my room. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r223675690-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
@@ -249,9 +312,6 @@
     <t>I stayed here for a week (Aug. 15-22nd) while I was in Dallas for work. I am a travel nurse and needed someplace to stay while in Dallas working. I had six days to work with only one day off in between my six 12 hour work days so I was not really looking for much in a place other than a decently clean place to lay my head and a place that had a fridge to store my breakfast and lunch items. The rooms are actually fairly nice, however not quite like the pictures show online when you pull up their site...but few rarely are!  The bed was decent, the room fairly clean. I say fairly because although I did not find any hair or bugs, the coffee pot in the room had coffee left over from the previous persons stay...really! The fridge also had something spilled down the side of it and was not cleaned up. All minor things really....but the biggest problem that I had with this place was the lack of insulation in the rooms! You should NEVER be able to hear the normal conversation of the people in the next room! I did not have any "neighbors" the first two nights that I stayed here, but unfortunately I did the entire rest of my stay. The couple and their toddler (est. about 2-3 years old) arrived at 11pm and were very, very loud. Inconsiderate in...I stayed here for a week (Aug. 15-22nd) while I was in Dallas for work. I am a travel nurse and needed someplace to stay while in Dallas working. I had six days to work with only one day off in between my six 12 hour work days so I was not really looking for much in a place other than a decently clean place to lay my head and a place that had a fridge to store my breakfast and lunch items. The rooms are actually fairly nice, however not quite like the pictures show online when you pull up their site...but few rarely are!  The bed was decent, the room fairly clean. I say fairly because although I did not find any hair or bugs, the coffee pot in the room had coffee left over from the previous persons stay...really! The fridge also had something spilled down the side of it and was not cleaned up. All minor things really....but the biggest problem that I had with this place was the lack of insulation in the rooms! You should NEVER be able to hear the normal conversation of the people in the next room! I did not have any "neighbors" the first two nights that I stayed here, but unfortunately I did the entire rest of my stay. The couple and their toddler (est. about 2-3 years old) arrived at 11pm and were very, very loud. Inconsiderate in actually slamming the door shut and yelling at each other like they were in a fight. The poor kid was obviously very sleepy because she would be very quiet until the ignorant woman came in and started yelling at her "man"...then she would start crying. This cycle occurred every 10-15 minutes for the first hour they arrived. Needless to say my sleep was interrupted. The next night they continued until about two in the morning. I considered calling the police, but for what...the walls being too thin? One night I heard two very loud thumps followed by the little girl crying, I assume it was the child falling off the chair because she was left unsupervised. The next night the ignorant woman was listening in to my phone call obviously because my husband was telling me how much he missed me and loved me and the next thing you know she starts yelling vulgarities and moaning like she is having sex, I know Studio 6 can't do anything about the respectfullness or maturity of their guests...but come on, at least put enough insulation and soundproofing between the walls so that you guests don't have to hear the normal voice conversations of their "neighbors" and can assume some privacy is intact.More</t>
   </si>
   <si>
-    <t>Khillsman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r163163586-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -267,9 +327,6 @@
     <t>This was the worst experience ever! The staff is emotionless and lack customer service skills. I have had to fight bugs since I checked in! When I told the staff the response I got was " ok what do you want to do?" I work for AT&amp;T and I plan to tell everyone I come in contact about this horrible experience.</t>
   </si>
   <si>
-    <t>raul84_13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r148725811-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -288,10 +345,40 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>madhu p</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r133812670-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>133812670</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Good and Bad!!!!</t>
+  </si>
+  <si>
+    <t>The first day we checked in it had roaches in the room. So we moved all our stuff. That rm was clean but the bed was terrible. Then we had to move since we were in a upgraded rm. we looked at it and it had a roach on the wall. We blew it off and moved on. That night woke up to roaches every where. So we call the front desk and moved to a different rm. at 1am. There is a lot of weird stuff going on in the back of this hotel. Also spoke to another guy who was staying here. He had his cadalydic converter stolen. I over heard a conversation from my room that they had bed bugs..... I'm not sure how this will end but they are nice people and hopefully will do the right thing. MoreShow less</t>
+  </si>
+  <si>
+    <t>The first day we checked in it had roaches in the room. So we moved all our stuff. That rm was clean but the bed was terrible. Then we had to move since we were in a upgraded rm. we looked at it and it had a roach on the wall. We blew it off and moved on. That night woke up to roaches every where. So we call the front desk and moved to a different rm. at 1am. There is a lot of weird stuff going on in the back of this hotel. Also spoke to another guy who was staying here. He had his cadalydic converter stolen. I over heard a conversation from my room that they had bed bugs..... I'm not sure how this will end but they are nice people and hopefully will do the right thing. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r129811257-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>129811257</t>
+  </si>
+  <si>
+    <t>05/12/2012</t>
+  </si>
+  <si>
+    <t>solitaire diamond in platinum ring</t>
+  </si>
+  <si>
+    <t>wow!!! what a great room and great service i have ever had in any economic chain hotel. whoever runs this hotel, they know the value of the customer, customer needs and satisfaction. i don't think i can get this kind of accomodation in this great price. Well, the price they charged v/s their room and service is awsome. Additionally all their staff is knowledgable and quick responsive to solve any problem.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r129769103-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
@@ -315,9 +402,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>vickie w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r126716803-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -336,9 +420,6 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>john d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r122662982-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -360,7 +441,43 @@
     <t>This is a HORRIBLE place to stay... First of all, they would not honor the internet rate(which was reduced from the standard weekly rate) and overcharged me...Escalated to Manager(Raj Patel) and he acted like he didn't understand what I was saying as a means to rectify the issue.... Even the corporate franchise owner(Accor North America) refuses to be manageable when dealing through the Better Business Bureau..Even if I'd gotten the discounted rate, this place was horrible.. My room didn't lock (Rm #246), so I had to pack up &amp; move my things to my truck while gone... The heater/AC unit blew out a foul odor on either setting...  There were shady characters hanging around the back side maybe selling drugs &amp;  with overly dressed up women walking the parking lot.. Office staff didn't speak english &amp; refused to address these issues described above... I wonder if the Sheriffs Dept knows of the criminal enterprise being supported by the motel Management &amp; its Corporate entity... ??More</t>
   </si>
   <si>
-    <t>GreenCanary01</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r122115698-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>122115698</t>
+  </si>
+  <si>
+    <t>12/26/2011</t>
+  </si>
+  <si>
+    <t>BEDBUG INFESTED!!!</t>
+  </si>
+  <si>
+    <t>Do NOT stay here!  They are suffering from a severe bedbug infestation.  Management lies about being willing to give refunds.  Room looked nice enough but it is 10 days later and I'm still covered in red welts from parasitic insects.  Plus, I had to decontaminate all of my belongings with was hours of hassle, not to mention expense.  The staff was pleasant enough, but you could tell they had heard complaints of bedbugs before, although they denied it.  After I complained about the bedbugs (which I caught half a dozen of in a glass container so they couldn't deny the infesttation), they moved me to a different room (which doesn't really help much because if a motel is infested, the bedbugs travel through the housekeeping carts and linens, etc.) but they would not give a full refund, even though they said they would.  HORRIBLE EXPERIENCE!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Do NOT stay here!  They are suffering from a severe bedbug infestation.  Management lies about being willing to give refunds.  Room looked nice enough but it is 10 days later and I'm still covered in red welts from parasitic insects.  Plus, I had to decontaminate all of my belongings with was hours of hassle, not to mention expense.  The staff was pleasant enough, but you could tell they had heard complaints of bedbugs before, although they denied it.  After I complained about the bedbugs (which I caught half a dozen of in a glass container so they couldn't deny the infesttation), they moved me to a different room (which doesn't really help much because if a motel is infested, the bedbugs travel through the housekeeping carts and linens, etc.) but they would not give a full refund, even though they said they would.  HORRIBLE EXPERIENCE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r92590924-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>92590924</t>
+  </si>
+  <si>
+    <t>01/11/2011</t>
+  </si>
+  <si>
+    <t>Fighting in Parking Lot and Parties Next Door</t>
+  </si>
+  <si>
+    <t>Rooms weren't bad, but the location wasn't great.  Many loud and obnoxious guests the night that I stayed.  Police ended up showing up because of a fight in the parking lot.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r89838292-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
@@ -387,9 +504,6 @@
     <t>NOT for anyone with chemical sensitivities!! Needed a hotel to relax in while I was down for medical procedure. Mngmnt aware that I couldn't be around chemicals/perfumes-specifically got a room that hadn't been occupied in a while-Handicap accessible, which was great since I am. Walk/roll in shower was MOLDY/SLIMY!! Room had smell of air freshener trapped in drapes/bedding, but had to live with it since it was so late. No "do not disturb" sign provided-returned from medical procedure to room drowned in bleach and air freshener. Hubby had to pack car while I wretched in parking lot. We had reserved room for 1 more night-mngmt ONLY returned $20-less than 1/2 of nights stay. All our clothes/pillows we had left in the room were coated in chemical smells. Had to put everything in trash bags for 6 hr car ride home JUST so I could breathe! Carpets were stiff/crunchy. Even tho it was H.Access. room there was no handicap prking spot saved outside the door &amp; no ramp. All rooms enter from outside bldg. Unless you know Dallas, this place is an immense PAIN to get to bc of the street layouts in the area. No food places immediately nearby. The room was big enuf but culdn't tell u if kitchen stuff worked or not. From the ickiness of the room you wuldnt catch me cooking food there anyway. YUK.More</t>
   </si>
   <si>
-    <t>danjo69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r69139502-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -408,15 +522,9 @@
     <t>June 2010</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>In the last few months I've logged roughly 14,000 mi. In an effort to save money I tried staying at Motel 6's along the way.As far as Motel 6 is concerned, they suck... However, this is a diamond in the VERY rough. It was very clean, quiet (something I surely can't say for any others I've stayed at).This morning I awoke to find my TV remote wasn't working. A call to the front desk had the manager in my room in less than 2 min with a new one. I know, just a TV remote, but I firmly believe if you can't be trusted with the small stuff, you damn well can't be trusted with the big stuff. I WILL stay againMore</t>
   </si>
   <si>
-    <t>nooneWi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r28427556-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -436,6 +544,53 @@
   </si>
   <si>
     <t>we stayed st studio6 in dec 2008 for 2 weeks &amp; the stay was amazing. The room was very clean &amp; spacious compared some other extended stay hotels in that area. The price was excellent. we paid around $249+tax/week. We got regular room service. the staff was so helpful &amp; polite. they spoke nice english &amp; good communication skilled staff.there was a night security &amp; area was looking safest place in dallas.       i liked most about this place was fully furnished kitchen with all utensils, silverware, crockeries, microwave, full sized refrigerator, cable tv with almost 30 to 35 channels.     I would suggest this place to stay to all my friend &amp; relatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r13371099-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>13371099</t>
+  </si>
+  <si>
+    <t>02/07/2008</t>
+  </si>
+  <si>
+    <t>Rude Employees! Door doesn't bolt! Services advertised NOT available!</t>
+  </si>
+  <si>
+    <t>Rooms small, refrigerator makes a funny noise all night long.  Location right on the freeway and very noisy.  Nonsmoking room smells like cigarrete smoke.  Deadbolt doesn't work and when I expressed concern about my safety they came 24 hours later to install a chain, but the deadbolt still doesn't work.  I also spent a night in a room without a deadbolt lock, as did who knows how many people before me, because they couldn't get someone out to fix the door on the weekend when I arrived.
+The hotel advertises wireless and wired Internet access, but neither are consistently available.  The web site states that wired access is "available throughout the building" but is only actually available in some rooms, if they happened to run the cable there apparently.  The wireless is sporadic at best and everywhere seems to have a "very low" or limited connectivity.  
+When I called to the front office to let them know something had gone wrong with the connection I was rudely told it was my computer's connection that caused the problem.  I asked for any idea on unique settings that would need to be enabled or ideas, but was told "I don't know, just change your settings."  My computer then connected to another network at a nearby restaurant with no problems.  I was again treated rudely when I asked the clerk to reset the router because there seemed to be a signal problem.  
+I...Rooms small, refrigerator makes a funny noise all night long.  Location right on the freeway and very noisy.  Nonsmoking room smells like cigarrete smoke.  Deadbolt doesn't work and when I expressed concern about my safety they came 24 hours later to install a chain, but the deadbolt still doesn't work.  I also spent a night in a room without a deadbolt lock, as did who knows how many people before me, because they couldn't get someone out to fix the door on the weekend when I arrived.The hotel advertises wireless and wired Internet access, but neither are consistently available.  The web site states that wired access is "available throughout the building" but is only actually available in some rooms, if they happened to run the cable there apparently.  The wireless is sporadic at best and everywhere seems to have a "very low" or limited connectivity.  When I called to the front office to let them know something had gone wrong with the connection I was rudely told it was my computer's connection that caused the problem.  I asked for any idea on unique settings that would need to be enabled or ideas, but was told "I don't know, just change your settings."  My computer then connected to another network at a nearby restaurant with no problems.  I was again treated rudely when I asked the clerk to reset the router because there seemed to be a signal problem.  I asked about the wired connection and was told that if it was available it would be under the kitchen table, but only "a few" rooms have that.  I rebooted my computer twice and then the clerk asked me to call back in ten minutes because he didn't want to deal with my computer problem anymore.  He asked me over and over if I wanted him "to be able to do his work or not."  It was a rude, strange question and he was not customer oriented at all.I am moving to another hotel and will never return here OR to any other Studio 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms small, refrigerator makes a funny noise all night long.  Location right on the freeway and very noisy.  Nonsmoking room smells like cigarrete smoke.  Deadbolt doesn't work and when I expressed concern about my safety they came 24 hours later to install a chain, but the deadbolt still doesn't work.  I also spent a night in a room without a deadbolt lock, as did who knows how many people before me, because they couldn't get someone out to fix the door on the weekend when I arrived.
+The hotel advertises wireless and wired Internet access, but neither are consistently available.  The web site states that wired access is "available throughout the building" but is only actually available in some rooms, if they happened to run the cable there apparently.  The wireless is sporadic at best and everywhere seems to have a "very low" or limited connectivity.  
+When I called to the front office to let them know something had gone wrong with the connection I was rudely told it was my computer's connection that caused the problem.  I asked for any idea on unique settings that would need to be enabled or ideas, but was told "I don't know, just change your settings."  My computer then connected to another network at a nearby restaurant with no problems.  I was again treated rudely when I asked the clerk to reset the router because there seemed to be a signal problem.  
+I...Rooms small, refrigerator makes a funny noise all night long.  Location right on the freeway and very noisy.  Nonsmoking room smells like cigarrete smoke.  Deadbolt doesn't work and when I expressed concern about my safety they came 24 hours later to install a chain, but the deadbolt still doesn't work.  I also spent a night in a room without a deadbolt lock, as did who knows how many people before me, because they couldn't get someone out to fix the door on the weekend when I arrived.The hotel advertises wireless and wired Internet access, but neither are consistently available.  The web site states that wired access is "available throughout the building" but is only actually available in some rooms, if they happened to run the cable there apparently.  The wireless is sporadic at best and everywhere seems to have a "very low" or limited connectivity.  When I called to the front office to let them know something had gone wrong with the connection I was rudely told it was my computer's connection that caused the problem.  I asked for any idea on unique settings that would need to be enabled or ideas, but was told "I don't know, just change your settings."  My computer then connected to another network at a nearby restaurant with no problems.  I was again treated rudely when I asked the clerk to reset the router because there seemed to be a signal problem.  I asked about the wired connection and was told that if it was available it would be under the kitchen table, but only "a few" rooms have that.  I rebooted my computer twice and then the clerk asked me to call back in ten minutes because he didn't want to deal with my computer problem anymore.  He asked me over and over if I wanted him "to be able to do his work or not."  It was a rude, strange question and he was not customer oriented at all.I am moving to another hotel and will never return here OR to any other Studio 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98657-r8272629-Studio_6_Dallas_Richardson_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>8272629</t>
+  </si>
+  <si>
+    <t>07/31/2007</t>
+  </si>
+  <si>
+    <t>Neither good nor bad</t>
+  </si>
+  <si>
+    <t>The first thing I noticed when I walked in was the room was FAR smaller than it appeared in the pictures.  The bed was NOT a queen, nor would one have fit in that room, the shower rod was broken and the curtain slipped to the middle of the rod making a HUGE mess everytime you took a shower, and the door lock was BROKEN!!  The door and frame had warped so much that you could not deadbolt the door at night.  The front staff was very apologetic and offered to fix it immediately, however the person that wrote down the room number we were in (after asking twice), got it wrong and when we got back to the room it STILL wasn't fixed.  They did fix it the next day but then we had to call and request room service.  The towels are awful.  They look like something they use in hospitals or prison - small and very rough.  The elevator on our side (we were in 326) looked old and after riding it once I refused and used the stairs.  The creaking, smells, and lurching did not inspire confidence.  Every time I used the hair dryer it smelled like it was going to catch on fire.  
+The bed was comfortable, the bathroom was surprisingly spacious, the staff was pleasant and spoke excellent English, all of the appliances worked, and since I got the room for $50 a night...The first thing I noticed when I walked in was the room was FAR smaller than it appeared in the pictures.  The bed was NOT a queen, nor would one have fit in that room, the shower rod was broken and the curtain slipped to the middle of the rod making a HUGE mess everytime you took a shower, and the door lock was BROKEN!!  The door and frame had warped so much that you could not deadbolt the door at night.  The front staff was very apologetic and offered to fix it immediately, however the person that wrote down the room number we were in (after asking twice), got it wrong and when we got back to the room it STILL wasn't fixed.  They did fix it the next day but then we had to call and request room service.  The towels are awful.  They look like something they use in hospitals or prison - small and very rough.  The elevator on our side (we were in 326) looked old and after riding it once I refused and used the stairs.  The creaking, smells, and lurching did not inspire confidence.  Every time I used the hair dryer it smelled like it was going to catch on fire.  The bed was comfortable, the bathroom was surprisingly spacious, the staff was pleasant and spoke excellent English, all of the appliances worked, and since I got the room for $50 a night including a full kitchen - I considered it a bargain to have so few problems (even tho the two I had were whoppers!).My suggestion - Inspect your room the moment you walk in and take your own towels and hair dryer.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>The first thing I noticed when I walked in was the room was FAR smaller than it appeared in the pictures.  The bed was NOT a queen, nor would one have fit in that room, the shower rod was broken and the curtain slipped to the middle of the rod making a HUGE mess everytime you took a shower, and the door lock was BROKEN!!  The door and frame had warped so much that you could not deadbolt the door at night.  The front staff was very apologetic and offered to fix it immediately, however the person that wrote down the room number we were in (after asking twice), got it wrong and when we got back to the room it STILL wasn't fixed.  They did fix it the next day but then we had to call and request room service.  The towels are awful.  They look like something they use in hospitals or prison - small and very rough.  The elevator on our side (we were in 326) looked old and after riding it once I refused and used the stairs.  The creaking, smells, and lurching did not inspire confidence.  Every time I used the hair dryer it smelled like it was going to catch on fire.  
+The bed was comfortable, the bathroom was surprisingly spacious, the staff was pleasant and spoke excellent English, all of the appliances worked, and since I got the room for $50 a night...The first thing I noticed when I walked in was the room was FAR smaller than it appeared in the pictures.  The bed was NOT a queen, nor would one have fit in that room, the shower rod was broken and the curtain slipped to the middle of the rod making a HUGE mess everytime you took a shower, and the door lock was BROKEN!!  The door and frame had warped so much that you could not deadbolt the door at night.  The front staff was very apologetic and offered to fix it immediately, however the person that wrote down the room number we were in (after asking twice), got it wrong and when we got back to the room it STILL wasn't fixed.  They did fix it the next day but then we had to call and request room service.  The towels are awful.  They look like something they use in hospitals or prison - small and very rough.  The elevator on our side (we were in 326) looked old and after riding it once I refused and used the stairs.  The creaking, smells, and lurching did not inspire confidence.  Every time I used the hair dryer it smelled like it was going to catch on fire.  The bed was comfortable, the bathroom was surprisingly spacious, the staff was pleasant and spoke excellent English, all of the appliances worked, and since I got the room for $50 a night including a full kitchen - I considered it a bargain to have so few problems (even tho the two I had were whoppers!).My suggestion - Inspect your room the moment you walk in and take your own towels and hair dryer.More</t>
   </si>
 </sst>
 </file>
@@ -940,47 +1095,43 @@
       <c r="A2" t="n">
         <v>38267</v>
       </c>
-      <c r="B2" t="n">
-        <v>178202</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -994,116 +1145,108 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38267</v>
       </c>
-      <c r="B3" t="n">
-        <v>178203</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38267</v>
       </c>
-      <c r="B4" t="n">
-        <v>178204</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1116,64 +1259,60 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38267</v>
       </c>
-      <c r="B5" t="n">
-        <v>178205</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
+      <c r="R5" t="n">
         <v>2</v>
       </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1181,137 +1320,113 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38267</v>
       </c>
-      <c r="B6" t="n">
-        <v>178206</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38267</v>
       </c>
-      <c r="B7" t="n">
-        <v>178207</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1319,55 +1434,47 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38267</v>
       </c>
-      <c r="B8" t="n">
-        <v>178208</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8" t="s">
-        <v>98</v>
-      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="n">
         <v>5</v>
       </c>
@@ -1375,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1390,70 +1497,60 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38267</v>
       </c>
-      <c r="B9" t="n">
-        <v>178209</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1461,63 +1558,55 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38267</v>
       </c>
-      <c r="B10" t="n">
-        <v>16762</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1532,70 +1621,66 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38267</v>
       </c>
-      <c r="B11" t="n">
-        <v>178210</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
         <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1603,70 +1688,62 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38267</v>
       </c>
-      <c r="B12" t="n">
-        <v>178211</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>129</v>
-      </c>
-      <c r="O12" t="s">
-        <v>130</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="n">
         <v>4</v>
       </c>
       <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
         <v>3</v>
       </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1674,54 +1751,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38267</v>
       </c>
-      <c r="B13" t="n">
-        <v>178212</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1745,7 +1818,663 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38267</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
